--- a/plastics/baseline_model/stock_outflow_excel_model.xlsx
+++ b/plastics/baseline_model/stock_outflow_excel_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/baseline_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183706B-1AB1-4548-AB51-D04BBF31F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F4290F-E0A8-6547-A292-BA2E63104B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{0F734159-5704-2940-847E-2DC6A0E2DF5F}"/>
   </bookViews>
@@ -72,7 +72,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -183,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -204,7 +204,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -546,7 +547,7 @@
   <dimension ref="A1:BE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,11 +709,11 @@
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>SUM(G6:BE6)</f>
-        <v>2554751</v>
+        <v>2553600</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="16">
-        <v>2554751</v>
+      <c r="C6" s="17">
+        <v>2553600</v>
       </c>
       <c r="D6" s="10">
         <v>0.5</v>
@@ -725,10 +726,10 @@
       </c>
       <c r="G6" s="12">
         <f>IF($F6-G$5&gt;0, "", IF($D6&lt;1,IF($F6-G$5&lt;0,0,$C6),($C6*_xlfn.NORM.DIST(G$5-$F6+0.5,$D6,$E6,FALSE))))</f>
-        <v>2554751</v>
+        <v>2553600</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6:BE11" si="0">IF($F6-H$5&gt;0, "", IF($D6&lt;1,IF($F6-H$5&lt;0,0,$C6),($C6*_xlfn.NORM.DIST(H$5-$F6+0.5,$D6,$E6,FALSE))))</f>
+        <f t="shared" ref="H6:AK11" si="0">IF($F6-H$5&gt;0, "", IF($D6&lt;1,IF($F6-H$5&lt;0,0,$C6),($C6*_xlfn.NORM.DIST(H$5-$F6+0.5,$D6,$E6,FALSE))))</f>
         <v>0</v>
       </c>
       <c r="I6" s="12">
@@ -871,11 +872,11 @@
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" ref="A7:A36" si="1">SUM(G7:BE7)</f>
-        <v>2260619</v>
+        <v>2259600</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="16">
-        <v>2260619</v>
+      <c r="C7" s="17">
+        <v>2259600</v>
       </c>
       <c r="D7" s="10">
         <v>0.5</v>
@@ -892,7 +893,7 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="2"/>
-        <v>2260619</v>
+        <v>2259600</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="2"/>
@@ -1034,11 +1035,11 @@
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="1"/>
-        <v>2221041</v>
+        <v>2220040</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="16">
-        <v>2221041</v>
+      <c r="C8" s="17">
+        <v>2220040</v>
       </c>
       <c r="D8" s="10">
         <v>0.5</v>
@@ -1059,7 +1060,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>2221041</v>
+        <v>2220040</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
@@ -1197,11 +1198,11 @@
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="1"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="16">
-        <v>2261019</v>
+      <c r="C9" s="17">
+        <v>2260000</v>
       </c>
       <c r="D9" s="10">
         <v>0.5</v>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
@@ -1360,11 +1361,11 @@
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="16">
-        <v>2261019</v>
+      <c r="C10" s="17">
+        <v>2260000</v>
       </c>
       <c r="D10" s="10">
         <v>0.5</v>
@@ -1393,7 +1394,7 @@
       </c>
       <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="L10" s="12">
         <f t="shared" si="0"/>
@@ -1523,11 +1524,11 @@
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="1"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="16">
-        <v>2261019</v>
+      <c r="C11" s="17">
+        <v>2260000</v>
       </c>
       <c r="D11" s="10">
         <v>0.5</v>
@@ -1560,7 +1561,7 @@
       </c>
       <c r="L11" s="12">
         <f t="shared" si="0"/>
-        <v>2261019</v>
+        <v>2260000</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="0"/>
@@ -1623,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="12">
-        <f t="shared" ref="AB11:BE11" si="3">IF($F11-AB$5&gt;0, "", IF($D11&lt;1,IF($F11-AB$5&lt;0,0,$C11),($C11*_xlfn.NORM.DIST(AB$5-$F11+0.5,$D11,$E11,FALSE))))</f>
+        <f t="shared" ref="AB11:AK11" si="3">IF($F11-AB$5&gt;0, "", IF($D11&lt;1,IF($F11-AB$5&lt;0,0,$C11),($C11*_xlfn.NORM.DIST(AB$5-$F11+0.5,$D11,$E11,FALSE))))</f>
         <v>0</v>
       </c>
       <c r="AC11" s="12">
@@ -1686,11 +1687,11 @@
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
-        <v>2362064</v>
+        <v>2361000</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="16">
-        <v>2362064</v>
+      <c r="C12" s="17">
+        <v>2361000</v>
       </c>
       <c r="D12" s="10">
         <v>0.5</v>
@@ -1727,7 +1728,7 @@
       </c>
       <c r="M12" s="12">
         <f t="shared" si="2"/>
-        <v>2362064</v>
+        <v>2361000</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="2"/>
@@ -1766,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" ref="W12:BE19" si="4">IF($F12-W$5&gt;0, "", IF($D12&lt;1,IF($F12-W$5&lt;0,0,$C12),($C12*_xlfn.NORM.DIST(W$5-$F12+0.5,$D12,$E12,FALSE))))</f>
+        <f t="shared" ref="W12:AK19" si="4">IF($F12-W$5&gt;0, "", IF($D12&lt;1,IF($F12-W$5&lt;0,0,$C12),($C12*_xlfn.NORM.DIST(W$5-$F12+0.5,$D12,$E12,FALSE))))</f>
         <v>0</v>
       </c>
       <c r="X12" s="12">
@@ -1849,11 +1850,11 @@
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="1"/>
-        <v>2473115</v>
+        <v>2472000</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="16">
-        <v>2473115</v>
+      <c r="C13" s="17">
+        <v>2472000</v>
       </c>
       <c r="D13" s="10">
         <v>0.5</v>
@@ -1894,7 +1895,7 @@
       </c>
       <c r="N13" s="12">
         <f t="shared" si="2"/>
-        <v>2473115</v>
+        <v>2472000</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="2"/>
@@ -2012,11 +2013,11 @@
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="1"/>
-        <v>2491781</v>
+        <v>2490658</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="16">
-        <v>2491781</v>
+      <c r="C14" s="17">
+        <v>2490658</v>
       </c>
       <c r="D14" s="10">
         <v>0.5</v>
@@ -2061,7 +2062,7 @@
       </c>
       <c r="O14" s="12">
         <f t="shared" si="2"/>
-        <v>2491781</v>
+        <v>2490658</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="2"/>
@@ -2175,11 +2176,11 @@
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="1"/>
-        <v>2515494</v>
+        <v>2514360</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="16">
-        <v>2515494</v>
+      <c r="C15" s="17">
+        <v>2514360</v>
       </c>
       <c r="D15" s="10">
         <v>0.5</v>
@@ -2228,7 +2229,7 @@
       </c>
       <c r="P15" s="12">
         <f t="shared" si="2"/>
-        <v>2515494</v>
+        <v>2514360</v>
       </c>
       <c r="Q15" s="12">
         <f t="shared" si="2"/>
@@ -2338,11 +2339,11 @@
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="1"/>
-        <v>2246012</v>
+        <v>2245000</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="16">
-        <v>2246012</v>
+      <c r="C16" s="17">
+        <v>2245000</v>
       </c>
       <c r="D16" s="10">
         <v>0.5</v>
@@ -2395,7 +2396,7 @@
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="2"/>
-        <v>2246012</v>
+        <v>2245000</v>
       </c>
       <c r="R16" s="12">
         <f t="shared" si="2"/>
@@ -2501,11 +2502,11 @@
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <f t="shared" si="1"/>
-        <v>2433786</v>
+        <v>2259000</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="16">
-        <v>2433786</v>
+      <c r="C17" s="17">
+        <v>2259000</v>
       </c>
       <c r="D17" s="10">
         <v>0.5</v>
@@ -2562,7 +2563,7 @@
       </c>
       <c r="R17" s="12">
         <f t="shared" si="2"/>
-        <v>2433786</v>
+        <v>2259000</v>
       </c>
       <c r="S17" s="12">
         <f t="shared" si="2"/>
@@ -2664,12 +2665,10 @@
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <f t="shared" si="1"/>
-        <v>2448584</v>
+        <v>0</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="16">
-        <v>2448584</v>
-      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="10">
         <v>0.5</v>
       </c>
@@ -2729,7 +2728,7 @@
       </c>
       <c r="S18" s="12">
         <f t="shared" si="2"/>
-        <v>2448584</v>
+        <v>0</v>
       </c>
       <c r="T18" s="12">
         <f t="shared" si="2"/>
@@ -2827,12 +2826,10 @@
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <f t="shared" si="1"/>
-        <v>2460625</v>
+        <v>0</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="16">
-        <v>2460625</v>
-      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="10">
         <v>0.5</v>
       </c>
@@ -2896,7 +2893,7 @@
       </c>
       <c r="T19" s="12">
         <f t="shared" si="2"/>
-        <v>2460625</v>
+        <v>0</v>
       </c>
       <c r="U19" s="12">
         <f t="shared" si="2"/>
@@ -2947,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="12">
-        <f t="shared" ref="AG19:BE19" si="5">IF($F19-AG$5&gt;0, "", IF($D19&lt;1,IF($F19-AG$5&lt;0,0,$C19),($C19*_xlfn.NORM.DIST(AG$5-$F19+0.5,$D19,$E19,FALSE))))</f>
+        <f t="shared" ref="AG19:AK19" si="5">IF($F19-AG$5&gt;0, "", IF($D19&lt;1,IF($F19-AG$5&lt;0,0,$C19),($C19*_xlfn.NORM.DIST(AG$5-$F19+0.5,$D19,$E19,FALSE))))</f>
         <v>0</v>
       </c>
       <c r="AH19" s="12">
@@ -2990,12 +2987,10 @@
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <f t="shared" si="1"/>
-        <v>2469867</v>
+        <v>0</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="16">
-        <v>2469867</v>
-      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="10">
         <v>0.5</v>
       </c>
@@ -3063,14 +3058,14 @@
       </c>
       <c r="U20" s="12">
         <f t="shared" si="2"/>
-        <v>2469867</v>
+        <v>0</v>
       </c>
       <c r="V20" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" ref="W20:BE26" si="6">IF($F20-W$5&gt;0, "", IF($D20&lt;1,IF($F20-W$5&lt;0,0,$C20),($C20*_xlfn.NORM.DIST(W$5-$F20+0.5,$D20,$E20,FALSE))))</f>
+        <f t="shared" ref="W20:AK25" si="6">IF($F20-W$5&gt;0, "", IF($D20&lt;1,IF($F20-W$5&lt;0,0,$C20),($C20*_xlfn.NORM.DIST(W$5-$F20+0.5,$D20,$E20,FALSE))))</f>
         <v>0</v>
       </c>
       <c r="X20" s="12">
@@ -3153,12 +3148,10 @@
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <f t="shared" si="1"/>
-        <v>2476251</v>
+        <v>0</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="16">
-        <v>2476251</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="10">
         <v>0.5</v>
       </c>
@@ -3230,7 +3223,7 @@
       </c>
       <c r="V21" s="12">
         <f t="shared" si="2"/>
-        <v>2476251</v>
+        <v>0</v>
       </c>
       <c r="W21" s="12">
         <f t="shared" si="6"/>
@@ -3316,12 +3309,10 @@
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="1"/>
-        <v>2482253</v>
+        <v>0</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="16">
-        <v>2482253</v>
-      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="10">
         <v>0.5</v>
       </c>
@@ -3397,7 +3388,7 @@
       </c>
       <c r="W22" s="12">
         <f t="shared" si="6"/>
-        <v>2482253</v>
+        <v>0</v>
       </c>
       <c r="X22" s="12">
         <f t="shared" si="6"/>
@@ -3479,12 +3470,10 @@
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <f t="shared" si="1"/>
-        <v>2487873</v>
+        <v>0</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="16">
-        <v>2487873</v>
-      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="10">
         <v>0.5</v>
       </c>
@@ -3564,7 +3553,7 @@
       </c>
       <c r="X23" s="12">
         <f t="shared" si="6"/>
-        <v>2487873</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="12">
         <f t="shared" si="6"/>
@@ -3642,12 +3631,10 @@
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <f t="shared" si="1"/>
-        <v>2493116</v>
+        <v>0</v>
       </c>
       <c r="B24"/>
-      <c r="C24" s="16">
-        <v>2493116</v>
-      </c>
+      <c r="C24" s="16"/>
       <c r="D24" s="10">
         <v>0.5</v>
       </c>
@@ -3731,7 +3718,7 @@
       </c>
       <c r="Y24" s="12">
         <f t="shared" si="6"/>
-        <v>2493116</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="12">
         <f t="shared" si="6"/>
@@ -3805,12 +3792,10 @@
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <f t="shared" si="1"/>
-        <v>2497996</v>
+        <v>0</v>
       </c>
       <c r="B25"/>
-      <c r="C25" s="16">
-        <v>2497996</v>
-      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="10">
         <v>0.5</v>
       </c>
@@ -3898,7 +3883,7 @@
       </c>
       <c r="Z25" s="12">
         <f t="shared" si="6"/>
-        <v>2497996</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="12">
         <f t="shared" si="6"/>
@@ -3968,12 +3953,10 @@
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <f t="shared" si="1"/>
-        <v>2502517</v>
+        <v>0</v>
       </c>
       <c r="B26"/>
-      <c r="C26" s="16">
-        <v>2502517</v>
-      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="10">
         <v>0.5</v>
       </c>
@@ -4028,7 +4011,7 @@
         <v/>
       </c>
       <c r="R26" s="12" t="str">
-        <f t="shared" ref="R26:BE33" si="7">IF($F26-R$5&gt;0, "", IF($D26&lt;1,IF($F26-R$5&lt;0,0,$C26),($C26*_xlfn.NORM.DIST(R$5-$F26+0.5,$D26,$E26,FALSE))))</f>
+        <f t="shared" ref="R26:AK33" si="7">IF($F26-R$5&gt;0, "", IF($D26&lt;1,IF($F26-R$5&lt;0,0,$C26),($C26*_xlfn.NORM.DIST(R$5-$F26+0.5,$D26,$E26,FALSE))))</f>
         <v/>
       </c>
       <c r="S26" s="12" t="str">
@@ -4065,7 +4048,7 @@
       </c>
       <c r="AA26" s="12">
         <f t="shared" si="7"/>
-        <v>2502517</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="12">
         <f t="shared" si="7"/>
@@ -4131,12 +4114,10 @@
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <f t="shared" si="1"/>
-        <v>2506692</v>
+        <v>0</v>
       </c>
       <c r="B27"/>
-      <c r="C27" s="16">
-        <v>2506692</v>
-      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="10">
         <v>0.5</v>
       </c>
@@ -4232,7 +4213,7 @@
       </c>
       <c r="AB27" s="12">
         <f t="shared" si="7"/>
-        <v>2506692</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="12">
         <f t="shared" si="7"/>
@@ -4294,12 +4275,10 @@
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="1"/>
-        <v>2510544</v>
+        <v>0</v>
       </c>
       <c r="B28"/>
-      <c r="C28" s="16">
-        <v>2510544</v>
-      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="10">
         <v>0.5</v>
       </c>
@@ -4399,7 +4378,7 @@
       </c>
       <c r="AC28" s="12">
         <f t="shared" si="7"/>
-        <v>2510544</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="12">
         <f t="shared" si="7"/>
@@ -4457,12 +4436,10 @@
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <f t="shared" si="1"/>
-        <v>2514139</v>
+        <v>0</v>
       </c>
       <c r="B29"/>
-      <c r="C29" s="16">
-        <v>2514139</v>
-      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="10">
         <v>0.5</v>
       </c>
@@ -4566,7 +4543,7 @@
       </c>
       <c r="AD29" s="12">
         <f t="shared" si="7"/>
-        <v>2514139</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="12">
         <f t="shared" si="7"/>
@@ -4620,12 +4597,10 @@
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <f t="shared" si="1"/>
-        <v>2517545</v>
+        <v>0</v>
       </c>
       <c r="B30"/>
-      <c r="C30" s="16">
-        <v>2517545</v>
-      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="10">
         <v>0.5</v>
       </c>
@@ -4733,7 +4708,7 @@
       </c>
       <c r="AE30" s="12">
         <f t="shared" si="7"/>
-        <v>2517545</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="12">
         <f t="shared" si="7"/>
@@ -4783,12 +4758,10 @@
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <f t="shared" si="1"/>
-        <v>2520791</v>
+        <v>0</v>
       </c>
       <c r="B31"/>
-      <c r="C31" s="16">
-        <v>2520791</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="10">
         <v>0.5</v>
       </c>
@@ -4900,7 +4873,7 @@
       </c>
       <c r="AF31" s="12">
         <f t="shared" si="7"/>
-        <v>2520791</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="12">
         <f t="shared" si="7"/>
@@ -4946,12 +4919,10 @@
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <f t="shared" si="1"/>
-        <v>2523896</v>
+        <v>0</v>
       </c>
       <c r="B32"/>
-      <c r="C32" s="16">
-        <v>2523896</v>
-      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="10">
         <v>0.5</v>
       </c>
@@ -5067,7 +5038,7 @@
       </c>
       <c r="AG32" s="12">
         <f t="shared" si="7"/>
-        <v>2523896</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="12">
         <f t="shared" si="7"/>
@@ -5109,11 +5080,9 @@
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="1"/>
-        <v>2526873</v>
-      </c>
-      <c r="C33" s="16">
-        <v>2526873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="10">
         <v>0.5</v>
       </c>
@@ -5233,7 +5202,7 @@
       </c>
       <c r="AH33" s="12">
         <f t="shared" si="7"/>
-        <v>2526873</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="12">
         <f t="shared" si="7"/>
@@ -5271,12 +5240,10 @@
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <f t="shared" si="1"/>
-        <v>2529707</v>
+        <v>0</v>
       </c>
       <c r="B34"/>
-      <c r="C34" s="16">
-        <v>2529707</v>
-      </c>
+      <c r="C34" s="16"/>
       <c r="D34" s="10">
         <v>0.5</v>
       </c>
@@ -5351,7 +5318,7 @@
         <v/>
       </c>
       <c r="W34" s="12" t="str">
-        <f t="shared" ref="W34:BE36" si="9">IF($F34-W$5&gt;0, "", IF($D34&lt;1,IF($F34-W$5&lt;0,0,$C34),($C34*_xlfn.NORM.DIST(W$5-$F34+0.5,$D34,$E34,FALSE))))</f>
+        <f t="shared" ref="W34:AK36" si="9">IF($F34-W$5&gt;0, "", IF($D34&lt;1,IF($F34-W$5&lt;0,0,$C34),($C34*_xlfn.NORM.DIST(W$5-$F34+0.5,$D34,$E34,FALSE))))</f>
         <v/>
       </c>
       <c r="X34" s="12" t="str">
@@ -5400,7 +5367,7 @@
       </c>
       <c r="AI34" s="12">
         <f t="shared" si="9"/>
-        <v>2529707</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="9"/>
@@ -5434,12 +5401,10 @@
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <f t="shared" si="1"/>
-        <v>2532383</v>
+        <v>0</v>
       </c>
       <c r="B35"/>
-      <c r="C35" s="16">
-        <v>2532383</v>
-      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="10">
         <v>0.5</v>
       </c>
@@ -5567,7 +5532,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="9"/>
-        <v>2532383</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="9"/>
@@ -5597,12 +5562,10 @@
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <f t="shared" si="1"/>
-        <v>2534899</v>
+        <v>0</v>
       </c>
       <c r="B36"/>
-      <c r="C36" s="16">
-        <v>2534899</v>
-      </c>
+      <c r="C36" s="16"/>
       <c r="D36" s="10">
         <v>0.5</v>
       </c>
@@ -5734,7 +5697,7 @@
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="9"/>
-        <v>2534899</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12"/>
@@ -5816,128 +5779,128 @@
       </c>
       <c r="B38"/>
       <c r="G38" s="14">
-        <f>SUM(G6:G36)</f>
-        <v>2554751</v>
+        <f t="shared" ref="G38:AK38" si="10">SUM(G6:G36)</f>
+        <v>2553600</v>
       </c>
       <c r="H38" s="14">
-        <f>SUM(H6:H36)</f>
-        <v>2260619</v>
+        <f t="shared" si="10"/>
+        <v>2259600</v>
       </c>
       <c r="I38" s="14">
-        <f>SUM(I6:I36)</f>
-        <v>2221041</v>
+        <f t="shared" si="10"/>
+        <v>2220040</v>
       </c>
       <c r="J38" s="14">
-        <f>SUM(J6:J36)</f>
-        <v>2261019</v>
+        <f t="shared" si="10"/>
+        <v>2260000</v>
       </c>
       <c r="K38" s="14">
-        <f>SUM(K6:K36)</f>
-        <v>2261019</v>
+        <f t="shared" si="10"/>
+        <v>2260000</v>
       </c>
       <c r="L38" s="14">
-        <f>SUM(L6:L36)</f>
-        <v>2261019</v>
+        <f t="shared" si="10"/>
+        <v>2260000</v>
       </c>
       <c r="M38" s="14">
-        <f>SUM(M6:M36)</f>
-        <v>2362064</v>
+        <f t="shared" si="10"/>
+        <v>2361000</v>
       </c>
       <c r="N38" s="14">
-        <f>SUM(N6:N36)</f>
-        <v>2473115</v>
+        <f t="shared" si="10"/>
+        <v>2472000</v>
       </c>
       <c r="O38" s="14">
-        <f>SUM(O6:O36)</f>
-        <v>2491781</v>
+        <f t="shared" si="10"/>
+        <v>2490658</v>
       </c>
       <c r="P38" s="14">
-        <f>SUM(P6:P36)</f>
-        <v>2515494</v>
+        <f t="shared" si="10"/>
+        <v>2514360</v>
       </c>
       <c r="Q38" s="14">
-        <f>SUM(Q6:Q36)</f>
-        <v>2246012</v>
+        <f t="shared" si="10"/>
+        <v>2245000</v>
       </c>
       <c r="R38" s="14">
-        <f>SUM(R6:R36)</f>
-        <v>2433786</v>
+        <f t="shared" si="10"/>
+        <v>2259000</v>
       </c>
       <c r="S38" s="14">
-        <f>SUM(S6:S36)</f>
-        <v>2448584</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="T38" s="14">
-        <f>SUM(T6:T36)</f>
-        <v>2460625</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="U38" s="14">
-        <f>SUM(U6:U36)</f>
-        <v>2469867</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="V38" s="14">
-        <f>SUM(V6:V36)</f>
-        <v>2476251</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="W38" s="14">
-        <f>SUM(W6:W36)</f>
-        <v>2482253</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="X38" s="14">
-        <f>SUM(X6:X36)</f>
-        <v>2487873</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Y38" s="14">
-        <f>SUM(Y6:Y36)</f>
-        <v>2493116</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Z38" s="15">
-        <f>SUM(Z6:Z36)</f>
-        <v>2497996</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AA38" s="15">
-        <f>SUM(AA6:AA36)</f>
-        <v>2502517</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <f>SUM(AB6:AB36)</f>
-        <v>2506692</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AC38" s="15">
-        <f>SUM(AC6:AC36)</f>
-        <v>2510544</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AD38" s="15">
-        <f>SUM(AD6:AD36)</f>
-        <v>2514139</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AE38" s="15">
-        <f>SUM(AE6:AE36)</f>
-        <v>2517545</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AF38" s="15">
-        <f>SUM(AF6:AF36)</f>
-        <v>2520791</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AG38" s="15">
-        <f>SUM(AG6:AG36)</f>
-        <v>2523896</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AH38" s="15">
-        <f>SUM(AH6:AH36)</f>
-        <v>2526873</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AI38" s="15">
-        <f>SUM(AI6:AI36)</f>
-        <v>2529707</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AJ38" s="15">
-        <f>SUM(AJ6:AJ36)</f>
-        <v>2532383</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AK38" s="15">
-        <f>SUM(AK6:AK36)</f>
-        <v>2534899</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AL38" s="15"/>
       <c r="AM38" s="15"/>
